--- a/va_facility_data_2025-02-20/Belmont County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Belmont%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Belmont County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Belmont%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R89930849b6a44c24a5c4bddafe7ca987"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5f25f1444f9646578c553a2f58209ec1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc73710661e604af3827ba49725fd4bb2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcd38d26e646b4059ad2488d2803a305c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf322ff9322a14f57a82925733036f82a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R606efd184b08490489df117cd78a4a11"/>
   </x:sheets>
 </x:workbook>
 </file>
